--- a/m.xlsx
+++ b/m.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>SKU</t>
   </si>
@@ -154,6 +154,9 @@
     <t>平均成本</t>
   </si>
   <si>
+    <t>产品图片</t>
+  </si>
+  <si>
     <t>SS00357</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
     <t>5.5</t>
   </si>
   <si>
+    <t>spuimg</t>
+  </si>
+  <si>
     <t>颜色</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
     <t>https://detail.1688.com/offer/589992795002.html</t>
   </si>
   <si>
+    <t>skuimg1</t>
+  </si>
+  <si>
     <t>圆形紫色</t>
   </si>
   <si>
@@ -217,46 +226,70 @@
     <t>https://detail.1688.com/offer/589992795002.html?spm=a26352.13672862.offerlist.1.4e6e146cfBAGLK</t>
   </si>
   <si>
+    <t>skuimg2</t>
+  </si>
+  <si>
     <t>圆形粉色</t>
   </si>
   <si>
     <t>SS00357-C</t>
   </si>
   <si>
+    <t>skuimg3</t>
+  </si>
+  <si>
     <t>星星红色</t>
   </si>
   <si>
     <t>SS00357-D</t>
   </si>
   <si>
+    <t>skuimg4</t>
+  </si>
+  <si>
     <t>星星紫色</t>
   </si>
   <si>
     <t>SS00357-E</t>
   </si>
   <si>
+    <t>skuimg5</t>
+  </si>
+  <si>
     <t>星星粉色</t>
   </si>
   <si>
     <t>SS00357-F</t>
   </si>
   <si>
+    <t>skuimg6</t>
+  </si>
+  <si>
     <t>心形红色</t>
   </si>
   <si>
     <t>SS00357-G</t>
   </si>
   <si>
+    <t>skuimg7</t>
+  </si>
+  <si>
     <t>心形粉色</t>
   </si>
   <si>
     <t>SS00357-H</t>
   </si>
   <si>
+    <t>skuimg8</t>
+  </si>
+  <si>
     <t>心形紫色</t>
   </si>
   <si>
     <t>SS00357-I</t>
+  </si>
+  <si>
+    <t>skuimg9</t>
   </si>
 </sst>
 </file>
@@ -264,12 +297,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,64 +331,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -372,8 +351,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,19 +434,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,6 +454,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,10 +474,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -457,31 +496,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,151 +652,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,33 +708,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -733,9 +746,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,15 +802,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -771,10 +810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,137 +822,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +963,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,15 +1287,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="43.5" spans="1:46">
+    <row r="1" s="1" customFormat="1" ht="43.5" spans="1:47">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1392,1010 +1434,886 @@
       <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="AU1" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:46">
+    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:47">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AN2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="4:46">
+    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="4:47">
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" s="1">
         <v>96</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AR3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="4:46">
+    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="4:47">
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1">
         <v>96</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AR4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="4:46">
+    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="4:47">
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" s="1">
         <v>96</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AR5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="4:46">
+    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="4:47">
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1">
         <v>96</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AR6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="4:46">
+    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="4:47">
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K7" s="1">
         <v>96</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AR7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="4:46">
+    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="4:47">
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1">
         <v>96</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AR8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="4:46">
+    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="4:47">
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K9" s="1">
         <v>96</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AR9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="4:46">
+    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="4:47">
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K10" s="1">
         <v>96</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AR10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="4:46">
+    <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="4:47">
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K11" s="1">
         <v>96</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AR11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
